--- a/medicine/Œil et vue/Super_vision/Super_vision.xlsx
+++ b/medicine/Œil et vue/Super_vision/Super_vision.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La super vision est le fait d'avoir une vision dépassant les normes humaines (dépassant donc une vision de 15/10e). En effet l'œil humain n'est pas parfait car il existe des aberrations optiques, telles que les aberrations chromatiques. Si l'œil était parfait, c'est-à-dire sans aberration, on pourrait théoriquement atteindre une vision de 25/10e mais la réalité optique de la réfraction de la lumière donnerait 24/10e comme meilleure résolution possible de l'œil.
 Pour chaque partie de l'œil, il y a des facteurs limitants qui pourraient être améliorés dans le cadre de la « super vision ». Par exemple en augmentant le nombre de photorécepteurs, ainsi on aurait une vision plus nette notamment de nuit.
